--- a/attendance-files/HRM/HRM (G) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="169">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -989,10 +989,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1220,8 +1220,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="6.0" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1666,7 +1668,7 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
@@ -1678,7 +1680,9 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="K8" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -1712,17 +1716,19 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
@@ -1762,10 +1768,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="36"/>
@@ -1808,10 +1814,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="36"/>
@@ -1848,7 +1854,7 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -1858,11 +1864,13 @@
         <v>22</v>
       </c>
       <c r="H12" s="36"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
@@ -1905,13 +1913,13 @@
       <c r="G13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="H13" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="36"/>
@@ -1954,7 +1962,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -2002,7 +2010,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="36"/>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="36"/>
@@ -2051,7 +2059,7 @@
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="36"/>
@@ -2140,8 +2148,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="37" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="36"/>
@@ -2190,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="36"/>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="36"/>
@@ -2234,7 +2242,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -2278,7 +2286,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -2322,7 +2330,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -2366,7 +2374,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -2456,7 +2464,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -2503,11 +2511,11 @@
       <c r="G26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="36"/>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="36"/>
@@ -2550,7 +2558,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -2594,12 +2602,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="38" t="s">
+      <c r="I28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="36"/>
@@ -2647,7 +2655,7 @@
       </c>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="36"/>
@@ -2690,7 +2698,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -2728,18 +2736,20 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="L31" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
@@ -2772,21 +2782,23 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="37"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="36"/>
+      <c r="I32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -2820,22 +2832,24 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38" t="s">
+      <c r="G33" s="38"/>
+      <c r="H33" s="37" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="L33" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
@@ -2874,10 +2888,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="36"/>
@@ -2920,7 +2934,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -2958,7 +2972,7 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -2970,8 +2984,12 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="K36" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
@@ -3004,18 +3022,20 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="37"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
+      <c r="L37" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
@@ -3048,18 +3068,22 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="37"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
+      <c r="K38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
@@ -3098,10 +3122,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="36"/>
@@ -3148,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="36"/>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="36"/>
@@ -3192,7 +3216,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="37"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -3230,7 +3254,7 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3242,7 +3266,9 @@
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="K42" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
@@ -3282,12 +3308,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="37"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="36"/>
-      <c r="I43" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="38" t="s">
+      <c r="I43" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="36"/>
@@ -3324,17 +3350,19 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G44" s="37"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="K44" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
@@ -3368,7 +3396,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3381,7 +3409,9 @@
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
+      <c r="L45" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
@@ -3420,12 +3450,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G46" s="37"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="38" t="s">
+      <c r="I46" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="36"/>
@@ -3462,20 +3492,22 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="37"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
+      <c r="L47" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M47" s="36"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
@@ -3514,7 +3546,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G48" s="37"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
@@ -3563,7 +3595,7 @@
       </c>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="38" t="s">
+      <c r="J49" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="36"/>
@@ -3600,7 +3632,7 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3609,15 +3641,17 @@
       <c r="G50" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="38" t="s">
+      <c r="H50" s="37" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="36"/>
-      <c r="J50" s="38" t="s">
+      <c r="J50" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
+      <c r="L50" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
@@ -3650,20 +3684,22 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G51" s="37"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="38" t="s">
+      <c r="J51" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
+      <c r="L51" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M51" s="36"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
@@ -3696,7 +3732,7 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -3705,17 +3741,21 @@
       <c r="G52" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
+      <c r="H52" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
@@ -3754,7 +3794,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G53" s="37"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
@@ -3847,7 +3887,7 @@
       <c r="G55" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="36"/>
@@ -3892,10 +3932,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G56" s="37"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K56" s="36"/>
@@ -3978,7 +4018,7 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -3988,12 +4028,14 @@
         <v>22</v>
       </c>
       <c r="H58" s="36"/>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
+      <c r="L58" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
@@ -4032,7 +4074,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="37"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
@@ -4076,10 +4118,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="37"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="38" t="s">
+      <c r="J60" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="36"/>
@@ -4122,9 +4164,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G61" s="37"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="38" t="s">
+      <c r="I61" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="36"/>
@@ -4168,9 +4210,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="37"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="38" t="s">
+      <c r="I62" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="36"/>
@@ -4208,7 +4250,7 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
@@ -4221,7 +4263,9 @@
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
+      <c r="L63" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
@@ -4260,7 +4304,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="37"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
@@ -4304,10 +4348,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G65" s="37"/>
+      <c r="G65" s="38"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="38" t="s">
+      <c r="J65" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K65" s="36"/>
@@ -4350,7 +4394,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G66" s="37"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
@@ -4388,18 +4432,20 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G67" s="37"/>
+      <c r="G67" s="38"/>
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
+      <c r="L67" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
@@ -4478,17 +4524,19 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G69" s="37"/>
+      <c r="G69" s="38"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="38"/>
+      <c r="I69" s="37"/>
       <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="K69" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
@@ -4528,12 +4576,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="37"/>
+      <c r="G70" s="38"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" s="38" t="s">
+      <c r="I70" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K70" s="36"/>
@@ -4576,7 +4624,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="37"/>
+      <c r="G71" s="38"/>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
@@ -4620,7 +4668,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G72" s="37"/>
+      <c r="G72" s="38"/>
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
@@ -4669,7 +4717,7 @@
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="38" t="s">
+      <c r="J73" s="37" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="36"/>
@@ -4706,7 +4754,7 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
@@ -4718,7 +4766,9 @@
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
+      <c r="K74" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
@@ -4758,7 +4808,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="37"/>
+      <c r="G75" s="38"/>
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
@@ -4802,7 +4852,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="37"/>
+      <c r="G76" s="38"/>
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
@@ -4846,11 +4896,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="38" t="s">
+      <c r="G77" s="38"/>
+      <c r="H77" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J77" s="36"/>
@@ -4894,7 +4944,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="37"/>
+      <c r="G78" s="38"/>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
@@ -4932,7 +4982,7 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
@@ -4945,7 +4995,9 @@
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
+      <c r="L79" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
@@ -4978,19 +5030,21 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="37"/>
+      <c r="G80" s="38"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
-      <c r="J80" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="36"/>
+      <c r="J80" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
@@ -5024,7 +5078,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="37"/>
+      <c r="G81" s="38"/>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
@@ -5061,20 +5115,22 @@
       </c>
       <c r="E82" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="37"/>
+      <c r="G82" s="38"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="38" t="s">
+      <c r="I82" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
+      <c r="L82" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
       <c r="O82" s="36"/>
@@ -5107,7 +5163,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="37"/>
+      <c r="G83" s="38"/>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
@@ -5145,7 +5201,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="37"/>
+      <c r="G84" s="38"/>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
@@ -5183,7 +5239,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="37"/>
+      <c r="G85" s="38"/>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
@@ -5221,7 +5277,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="37"/>
+      <c r="G86" s="38"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
@@ -5259,7 +5315,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="37"/>
+      <c r="G87" s="38"/>
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
@@ -5297,7 +5353,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="37"/>
+      <c r="G88" s="38"/>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
@@ -5335,7 +5391,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="37"/>
+      <c r="G89" s="38"/>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
@@ -5373,7 +5429,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="37"/>
+      <c r="G90" s="38"/>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
@@ -5411,7 +5467,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="37"/>
+      <c r="G91" s="38"/>
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
@@ -5449,7 +5505,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="37"/>
+      <c r="G92" s="38"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
@@ -5487,7 +5543,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="37"/>
+      <c r="G93" s="38"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
@@ -5525,7 +5581,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="37"/>
+      <c r="G94" s="38"/>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
@@ -5563,7 +5619,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="37"/>
+      <c r="G95" s="38"/>
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
